--- a/database_test.xlsx
+++ b/database_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Jersey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="85">
   <si>
     <t>O</t>
   </si>
@@ -209,6 +209,9 @@
     <t>Strip Trim</t>
   </si>
   <si>
+    <t>Green and White</t>
+  </si>
+  <si>
     <t>Kelly Green and White</t>
   </si>
   <si>
@@ -255,6 +258,21 @@
   </si>
   <si>
     <t>Yellow and Black</t>
+  </si>
+  <si>
+    <t>Lewis and Clark, O on back</t>
+  </si>
+  <si>
+    <t>White and Black</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -293,18 +311,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:J308"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +661,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
@@ -655,7 +676,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
@@ -670,7 +691,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
@@ -685,7 +706,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
@@ -700,7 +721,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
@@ -715,7 +736,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
@@ -730,7 +751,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
@@ -745,7 +766,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
@@ -760,7 +781,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
@@ -775,7 +796,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B11" t="s">
@@ -791,7 +812,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -809,7 +830,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
@@ -824,7 +845,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B14" t="s">
@@ -839,7 +860,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">
@@ -854,7 +875,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B16" t="s">
@@ -869,7 +890,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B17" t="s">
@@ -884,7 +905,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B18" t="s">
@@ -899,7 +920,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
@@ -914,7 +935,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
@@ -924,12 +945,12 @@
         <v>16</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" ref="E20:E24" si="3">"INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2016-09-03','"&amp;B20&amp;"','"&amp;C20&amp;"','"&amp;D20&amp;"');"</f>
+        <f t="shared" ref="E20:E83" si="3">"INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2016-09-03','"&amp;B20&amp;"','"&amp;C20&amp;"','"&amp;D20&amp;"');"</f>
         <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2016-09-03','Yellow','Numbers','');</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
@@ -944,7 +965,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
@@ -959,7 +980,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
@@ -974,7 +995,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
@@ -989,922 +1010,1651 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="str">
+        <f>"INSERT INTO jersey (Date,Color,Item,Description) VALUES ('"&amp;A27&amp;"','"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27&amp;"');"</f>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2016-01-02','White','Jersey','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ref="E28:E91" si="4">"INSERT INTO jersey (Date,Color,Item,Description) VALUES ('"&amp;A28&amp;"','"&amp;B28&amp;"','"&amp;C28&amp;"','"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2016-01-02','Kelly Green','Numbers','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2016-01-02','Yellow','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2016-01-02','Grey','Collar','');</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>45</v>
+      <c r="A31" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2016-01-02','Kelly Green','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2016-01-02','Grey','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-27','Kelly Green','Jersey','Camo');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-27','Yellow','Numbers','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-27','Kelly Green','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="E36" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-27','Yellow','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-21','Black','Jersey','');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
       <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-21','Silver','Numbers','');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-21','Yellow','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="E40" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-21','Silver','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
         <v>22</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="E41" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-21','Silver','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="E42" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-21','Yellow','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-14','White','Jersey','');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-14','Black','Numbers','');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-14','Yellow','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-14','Silver','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-14','Black','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-07','Kelly Green','Jersey','');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-07','Yellow','Numbers','');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-07','Kelly Green','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-07','Kelly Green','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-11-07','Yellow','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-29','White','Jersey','');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-29','Kelly Green','Numbers','');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-29','Silver','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-29','Kelly Green','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-29','Silver','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-29','Silver','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-17','White','Jersey','');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-17','Kelly Green','Numbers','');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-17','Silver','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-17','Kelly Green','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-17','Silver','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-17','Silver','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-10','Grey','Jersey','');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-10','Black','Numbers','');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-10','Black','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-10','Grey','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-03','White','Jersey','');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-03','Black','Numbers','');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-03','Yellow','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-03','Silver','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-10-03','Black','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-26','Kelly Green','Jersey','');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-26','Yellow','Numbers','');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-26','Kelly Green','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-26','Yellow','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-19','Yellow','Jersey','');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-19','Black','Numbers','');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-19','Silver','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-19','Black','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-19','Black','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-12','White','Jersey','');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-12','Black','Numbers','');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-12','Yellow','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-12','Black','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-12','Silver','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-05','Black','Jersey','');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-05','Silver','Numbers','');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-05','Yellow','Number Trim','');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-05','Silver','Nameplate','');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" ref="E92" si="5">"INSERT INTO jersey (Date,Color,Item,Description) VALUES ('"&amp;A92&amp;"','"&amp;B92&amp;"','"&amp;C92&amp;"','"&amp;D92&amp;"');"</f>
+        <v>INSERT INTO jersey (Date,Color,Item,Description) VALUES ('2015-09-05','Silver','Shoulder Trim','');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="3"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="3"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="3"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="3"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="3"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="3"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
+      <c r="A104" s="3"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="3"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="3"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="3"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
+      <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="3"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="3"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="3"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="3"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+      <c r="A121" s="3"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="A122" s="3"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="A123" s="3"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" s="3"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
+      <c r="A125" s="3"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
+      <c r="A126" s="3"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
+      <c r="A127" s="3"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
+      <c r="A128" s="3"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
+      <c r="A129" s="3"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
+      <c r="A130" s="3"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
+      <c r="A131" s="3"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
+      <c r="A132" s="3"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
+      <c r="A133" s="3"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
+      <c r="A134" s="3"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
+      <c r="A135" s="3"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
+      <c r="A136" s="3"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
+      <c r="A137" s="3"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
+      <c r="A138" s="3"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
+      <c r="A139" s="3"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
+      <c r="A140" s="3"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
+      <c r="A141" s="3"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
+      <c r="A142" s="3"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
+      <c r="A143" s="3"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
+      <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
+      <c r="A145" s="3"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
+      <c r="A146" s="3"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
+      <c r="A147" s="3"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
+      <c r="A148" s="3"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
+      <c r="A150" s="3"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
+      <c r="A151" s="3"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
+      <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
+      <c r="A153" s="3"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
+      <c r="A154" s="3"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
+      <c r="A155" s="3"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
+      <c r="A156" s="3"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
+      <c r="A157" s="3"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
+      <c r="A158" s="3"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
+      <c r="A159" s="3"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
+      <c r="A160" s="3"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
+      <c r="A161" s="3"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
+      <c r="A162" s="3"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
+      <c r="A163" s="3"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
+      <c r="A164" s="3"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
+      <c r="A165" s="3"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
+      <c r="A166" s="3"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
+      <c r="A167" s="3"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
+      <c r="A168" s="3"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
+      <c r="A169" s="3"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
+      <c r="A170" s="3"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
+      <c r="A171" s="3"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
+      <c r="A172" s="3"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
+      <c r="A173" s="3"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
+      <c r="A174" s="3"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
+      <c r="A175" s="3"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
+      <c r="A176" s="3"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
+      <c r="A177" s="3"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
+      <c r="A178" s="3"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
+      <c r="A179" s="3"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
+      <c r="A180" s="3"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
+      <c r="A181" s="3"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
+      <c r="A182" s="3"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
+      <c r="A183" s="3"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
+      <c r="A184" s="3"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
+      <c r="A185" s="3"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
+      <c r="A186" s="3"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4"/>
+      <c r="A187" s="3"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
+      <c r="A188" s="3"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
+      <c r="A189" s="3"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
+      <c r="A190" s="3"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4"/>
+      <c r="A191" s="3"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
+      <c r="A192" s="3"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
+      <c r="A193" s="3"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
+      <c r="A194" s="3"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
+      <c r="A195" s="3"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
+      <c r="A196" s="3"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
+      <c r="A197" s="3"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
+      <c r="A198" s="3"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
+      <c r="A199" s="3"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
+      <c r="A200" s="3"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
+      <c r="A201" s="3"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
+      <c r="A202" s="3"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
+      <c r="A203" s="3"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
+      <c r="A204" s="3"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
+      <c r="A205" s="3"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
+      <c r="A206" s="3"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
+      <c r="A207" s="3"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
+      <c r="A208" s="3"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
+      <c r="A209" s="3"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
+      <c r="A210" s="3"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
+      <c r="A211" s="3"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
+      <c r="A212" s="3"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
+      <c r="A213" s="3"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
+      <c r="A214" s="3"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
+      <c r="A215" s="3"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
+      <c r="A216" s="3"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
+      <c r="A217" s="3"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
+      <c r="A218" s="3"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
+      <c r="A219" s="3"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
+      <c r="A220" s="3"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
+      <c r="A221" s="3"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
+      <c r="A222" s="3"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
+      <c r="A223" s="3"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
+      <c r="A224" s="3"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
+      <c r="A225" s="3"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
+      <c r="A226" s="3"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
+      <c r="A227" s="3"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
+      <c r="A228" s="3"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
+      <c r="A229" s="3"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
+      <c r="A230" s="3"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
+      <c r="A231" s="3"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
+      <c r="A232" s="3"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
+      <c r="A233" s="3"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
+      <c r="A234" s="3"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
+      <c r="A235" s="3"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
+      <c r="A236" s="3"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
+      <c r="A237" s="3"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
+      <c r="A238" s="3"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
+      <c r="A239" s="3"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
+      <c r="A240" s="3"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
+      <c r="A241" s="3"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
+      <c r="A242" s="3"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
+      <c r="A243" s="3"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
+      <c r="A244" s="3"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
+      <c r="A245" s="3"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
+      <c r="A246" s="3"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
+      <c r="A247" s="3"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
+      <c r="A248" s="3"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="4"/>
+      <c r="A249" s="3"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
+      <c r="A250" s="3"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="4"/>
+      <c r="A251" s="3"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="4"/>
+      <c r="A252" s="3"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="4"/>
+      <c r="A253" s="3"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="4"/>
+      <c r="A254" s="3"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="4"/>
+      <c r="A255" s="3"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
+      <c r="A256" s="3"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4"/>
+      <c r="A257" s="3"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="4"/>
+      <c r="A258" s="3"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
+      <c r="A259" s="3"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
+      <c r="A260" s="3"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="4"/>
+      <c r="A261" s="3"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
+      <c r="A262" s="3"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
+      <c r="A263" s="3"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
+      <c r="A264" s="3"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="4"/>
+      <c r="A265" s="3"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="4"/>
+      <c r="A266" s="3"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
+      <c r="A267" s="3"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
+      <c r="A268" s="3"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
+      <c r="A269" s="3"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="4"/>
+      <c r="A270" s="3"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="4"/>
+      <c r="A271" s="3"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="4"/>
+      <c r="A272" s="3"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
+      <c r="A273" s="3"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
+      <c r="A274" s="3"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
+      <c r="A275" s="3"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
+      <c r="A276" s="3"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
+      <c r="A277" s="3"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
+      <c r="A278" s="3"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
+      <c r="A279" s="3"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
+      <c r="A280" s="3"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="4"/>
+      <c r="A281" s="3"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="4"/>
+      <c r="A282" s="3"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
+      <c r="A283" s="3"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
+      <c r="A284" s="3"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
+      <c r="A285" s="3"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
+      <c r="A286" s="3"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
+      <c r="A287" s="3"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4"/>
+      <c r="A288" s="3"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4"/>
+      <c r="A289" s="3"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="4"/>
+      <c r="A290" s="3"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="4"/>
+      <c r="A291" s="3"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="4"/>
+      <c r="A292" s="3"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="4"/>
+      <c r="A293" s="3"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="4"/>
+      <c r="A294" s="3"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="4"/>
+      <c r="A295" s="3"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="4"/>
+      <c r="A296" s="3"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
+      <c r="A297" s="3"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="4"/>
+      <c r="A298" s="3"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="4"/>
+      <c r="A299" s="3"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="4"/>
+      <c r="A300" s="3"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="4"/>
+      <c r="A301" s="3"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="4"/>
+      <c r="A302" s="3"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="4"/>
+      <c r="A303" s="3"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="4"/>
+      <c r="A304" s="3"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="4"/>
+      <c r="A305" s="3"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="4"/>
+      <c r="A306" s="3"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="4"/>
+      <c r="A307" s="3"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1917,7 +2667,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E7" sqref="E7:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,7 +2690,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
@@ -1955,7 +2705,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
@@ -1965,12 +2715,12 @@
         <v>8</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0">"INSERT INTO pants (Date,Color,Item,Description) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
+        <f t="shared" ref="E3:E19" si="0">"INSERT INTO pants (Date,Color,Item,Description) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
         <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2016-09-17','Black','Pants','');</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" t="s">
@@ -1985,7 +2735,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
@@ -2003,12 +2753,22 @@
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2016-01-02','White','Pants','');</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B8" t="s">
@@ -2017,9 +2777,13 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-11-27','Yellow','Pants','');</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
@@ -2028,55 +2792,159 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-11-21','Black','Pants','');</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-11-14','Black','Pants','');</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-11-07','White','Pants','');</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-10-29','White','Pants','');</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-10-17','Kelly Green','Pants','');</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-10-10','Grey','Pants','');</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-10-03','Yellow','Pants','');</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-09-26','Kelly Green','Pants','');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-09-19','Yellow','Pants','');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-09-12','Grey','Pants','');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO pants (Date,Color,Item,Description) VALUES ('2015-09-05','Yellow','Pants','');</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E56" sqref="E16:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2982,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
@@ -2129,7 +2997,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
@@ -2142,12 +3010,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E13" si="0">"INSERT INTO helmet (Date,Color,Item,Description) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
+        <f t="shared" ref="E3:E56" si="0">"INSERT INTO helmet (Date,Color,Item,Description) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
         <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2016-09-24','Kelly Green','Decal','O');</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
@@ -2162,7 +3030,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
@@ -2177,7 +3045,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
@@ -2195,7 +3063,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
@@ -2210,7 +3078,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B8" t="s">
@@ -2225,7 +3093,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
@@ -2243,7 +3111,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B10" t="s">
@@ -2258,7 +3126,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
@@ -2273,7 +3141,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
@@ -2291,7 +3159,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
@@ -2306,137 +3174,660 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2016-01-02','White','Helmet','');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2016-01-02','Green','Decal','O');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2016-01-02','White','Facemask','');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-27','Yellow','Helmet','');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-27','Silver','Decal','Military Flying Duck');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-27','Green','Stripes','2 Center Stripes');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-27','Black','Strip Trim','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-27','Grey','Facemask','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-21','Black','Helmet','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-21','Yellow','Decal','Skull Duck');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-21','Black','Facemask','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-14','Black','Helmet','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-14','Yellow','Decal','O');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-14','Black','Facemask','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-07','Galaxy White','Helmet','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="str">
+        <f>"INSERT INTO helmet (Date,Color,Item,Description) VALUES ('"&amp;A31&amp;"','"&amp;B31&amp;"','"&amp;C31&amp;"','"&amp;D31&amp;"');"</f>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-07','Kelly Green','Facemask','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-11-07','Kelly Green','Decal','Skull Duck');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-29','Silver','Helmet','');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-29','Kelly Green','Decal','O');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-29','Silver','Facemask','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-17','Kelly Green','Helmet','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-17','Silver','Decal','Fighting Duck');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-17','Kelly Green','Facemask','');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-10','Silver','Helmet','');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-10','Silver','Facemask','');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-10','Black','Decal','Lewis and Clark, O on back');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-03','Yellow','Helmet','');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-03','Silver','Decal','O');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-10-03','Silver','Facemask','');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-26','Kelly Green','Helmet','');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-26','Yellow','Decal','O');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-26','Kelly Green','Facemask','');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-19','Black','Helmet','');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-19','Yellow','Decal','Fighting Duck / Skull Duck');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-19','Black','Facemask','');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-12','Galaxy White','Helmet','');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-12','Black','Decal','Skull Duck');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-12','Black','Facemask','');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-05','Yellow','Helmet','');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-05','Black','Decal','O');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO helmet (Date,Color,Item,Description) VALUES ('2015-09-05','Silver','Facemask','');</v>
       </c>
     </row>
   </sheetData>
@@ -2446,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,7 +3865,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
@@ -2489,7 +3880,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
@@ -2499,12 +3890,12 @@
         <v>19</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E9" si="0">"INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
+        <f t="shared" ref="E3:E37" si="0">"INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
         <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2016-09-24','Orange','Socks','');</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
@@ -2519,7 +3910,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
@@ -2534,7 +3925,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
@@ -2549,7 +3940,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
@@ -2564,7 +3955,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
@@ -2579,7 +3970,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
@@ -2594,96 +3985,393 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2016-01-02','White','Socks','');</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>45</v>
+      <c r="A13" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2016-01-02','Kelly Green and White','Cleats','');</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-11-27','Kelly Green and White','Cleats','');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-11-27','Kelly Green','Socks','');</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-11-21','Black','Socks','');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-11-21','Yellow and Black','Cleats','');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-11-14','Black','Socks','');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-11-14','Black','Cleats','');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-11-07','White','Socks','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-11-07','White','Cleats','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-10-29','White','Socks','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-10-29','White','Cleats','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-10-17','White','Socks','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-10-17','Green and White','Cleats','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-10-10','Grey','Socks','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-10-10','White and Black','Cleats','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-10-03','Yellow','Socks','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-10-03','Yellow and Black','Cleats','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-09-26','Kelly Green','Socks','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-09-26','Green and White','Cleats','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-09-19','Black','Socks','');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-09-19','Yellow and Black','Cleats','');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-09-12','White and Black','Socks','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-09-12','White','Cleats','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-09-05','Yellow','Socks','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sockscleats (Date,Color,Item,Description) VALUES ('2015-09-05','Yellow and Black','Cleats','');</v>
       </c>
     </row>
   </sheetData>
@@ -2693,10 +4381,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E7" sqref="E7:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,7 +4395,7 @@
     <col min="4" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2717,10 +4405,13 @@
       <c r="C1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>42637</v>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -2728,10 +4419,13 @@
       <c r="C2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>42630</v>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>
@@ -2739,125 +4433,225 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>42623</v>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>42616</v>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('"&amp;A7&amp;"','"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"');"</f>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2016-01-02','TCU','','L');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E19" si="0">"INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('"&amp;A8&amp;"','"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-11-27','Oregon State','','W');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-11-21','USC','','W');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-11-14','Stanford','','W');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-11-07','Cal','','W');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-10-29','Arizona State','','W');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-10-17','Washington','','W');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-10-10','Washington State','','L');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-10-03','Colorado','','W');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-09-26','Utah','','L');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-09-19','Georgia State','','W');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-09-12','Michigan State','','L');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO games (Date,Opponent,JerseyName,Result) VALUES ('2015-09-05','Eastern Washington','','W');</v>
       </c>
     </row>
   </sheetData>
